--- a/DB Specification/ENCLICK_테이블 명세서_PAY_METHOD.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_PAY_METHOD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENSSEL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A73E388-4C1B-4DFC-A54C-A4A9FBC1290A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679B4093-936C-41DE-8348-ED76C1BEDE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="893" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 테이블 명세서" sheetId="89" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,6 +383,30 @@
   </si>
   <si>
     <t>회사코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGI_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT(getdate())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDA_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,6 +792,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -791,9 +818,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1102,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1126,36 +1150,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
       <c r="J2" s="20" t="s">
         <v>17</v>
       </c>
@@ -1164,19 +1188,19 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="20" t="s">
         <v>19</v>
       </c>
@@ -1188,19 +1212,19 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
       <c r="J4" s="20" t="s">
         <v>21</v>
       </c>
@@ -1212,19 +1236,19 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="19"/>
       <c r="K5" s="20"/>
       <c r="N5" s="2" t="s">
@@ -1232,21 +1256,21 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
       <c r="N6" s="2" t="s">
         <v>31</v>
       </c>
@@ -1457,16 +1481,30 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6"/>
+      <c r="A18" s="13">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
+      <c r="J18" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="K18" s="10"/>
       <c r="M18" s="37"/>
       <c r="N18" s="37" t="s">
@@ -1474,16 +1512,24 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="13">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="6"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="J19" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="K19" s="10"/>
       <c r="M19" s="37"/>
       <c r="N19" s="37" t="s">
@@ -1736,36 +1782,24 @@
     <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PAY_METHOD', @level2type=N'COLUMN',@level2name=N'' </v>
+        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'등록일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PAY_METHOD', @level2type=N'COLUMN',@level2name=N'REGI_DT' </v>
       </c>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PAY_METHOD', @level2type=N'COLUMN',@level2name=N'' </v>
+        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'수정일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PAY_METHOD', @level2type=N'COLUMN',@level2name=N'UPDA_DT' </v>
       </c>
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="2" t="e">
-        <f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp;#REF! &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B20 &amp; "' "</f>
-        <v>#REF!</v>
-      </c>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PAY_METHOD', @level2type=N'COLUMN',@level2name=N'' </v>
-      </c>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="str">
-        <f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J20 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B22 &amp; "' "</f>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PAY_METHOD', @level2type=N'COLUMN',@level2name=N'' </v>
-      </c>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1792,7 +1826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C36B5F9-DD6C-4513-B25E-14CD7010AD98}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -1814,27 +1848,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="45" t="str">
+      <c r="C2" s="46" t="str">
         <f>'테스트 테이블 명세서'!$C$2</f>
         <v>EnClick</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="20" t="s">
         <v>17</v>
       </c>
@@ -1844,15 +1878,15 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="45" t="str">
+      <c r="C3" s="46" t="str">
         <f>'테스트 테이블 명세서'!$C$3</f>
         <v>ENCLICK</v>
       </c>
-      <c r="D3" s="45"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="20" t="s">
         <v>19</v>
       </c>
@@ -1862,15 +1896,15 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="45" t="str">
+      <c r="C4" s="46" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>PAY_METHOD</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="20" t="s">
         <v>21</v>
       </c>
@@ -1880,28 +1914,28 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="45" t="str">
+      <c r="C5" s="46" t="str">
         <f>'테스트 테이블 명세서'!$C$5</f>
         <v>결제수단</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="19"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="45" t="str">
+      <c r="C6" s="46" t="str">
         <f>'테스트 테이블 명세서'!$C$6</f>
         <v>신용카드, 체크카드, 기타 페이 등 결제수단에 대한 정보가 담긴 테이블</v>
       </c>
-      <c r="D6" s="45"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
@@ -1940,10 +1974,10 @@
       <c r="B9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="38" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1954,10 +1988,10 @@
       <c r="B10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="38" t="s">
         <v>76</v>
       </c>
     </row>
